--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_64ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_64ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2077,28 +2077,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>871.834497338362</v>
+        <v>944.9227601658594</v>
       </c>
       <c r="AB2" t="n">
-        <v>1192.882421881814</v>
+        <v>1292.885007508983</v>
       </c>
       <c r="AC2" t="n">
-        <v>1079.035397758407</v>
+        <v>1169.49387696783</v>
       </c>
       <c r="AD2" t="n">
-        <v>871834.497338362</v>
+        <v>944922.7601658594</v>
       </c>
       <c r="AE2" t="n">
-        <v>1192882.421881814</v>
+        <v>1292885.007508983</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.434382374249833e-06</v>
+        <v>2.65398293436489e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.59407552083333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1079035.397758407</v>
+        <v>1169493.87696783</v>
       </c>
     </row>
     <row r="3">
@@ -2183,28 +2183,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>409.80241469189</v>
+        <v>458.4994762920311</v>
       </c>
       <c r="AB3" t="n">
-        <v>560.7097429880147</v>
+        <v>627.3392110320616</v>
       </c>
       <c r="AC3" t="n">
-        <v>507.1963920783047</v>
+        <v>567.4668372072734</v>
       </c>
       <c r="AD3" t="n">
-        <v>409802.41469189</v>
+        <v>458499.4762920311</v>
       </c>
       <c r="AE3" t="n">
-        <v>560709.7429880147</v>
+        <v>627339.2110320616</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.260298307505969e-06</v>
+        <v>4.18214364759745e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.7236328125</v>
       </c>
       <c r="AH3" t="n">
-        <v>507196.3920783047</v>
+        <v>567466.8372072735</v>
       </c>
     </row>
     <row r="4">
@@ -2289,28 +2289,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>315.4419915136586</v>
+        <v>352.0287933546932</v>
       </c>
       <c r="AB4" t="n">
-        <v>431.60164910749</v>
+        <v>481.6613254821734</v>
       </c>
       <c r="AC4" t="n">
-        <v>390.4101934733895</v>
+        <v>435.6922445940701</v>
       </c>
       <c r="AD4" t="n">
-        <v>315441.9915136587</v>
+        <v>352028.7933546932</v>
       </c>
       <c r="AE4" t="n">
-        <v>431601.64910749</v>
+        <v>481661.3254821734</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.592027824899034e-06</v>
+        <v>4.795930106348895e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.862630208333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>390410.1934733895</v>
+        <v>435692.2445940701</v>
       </c>
     </row>
     <row r="5">
@@ -2395,28 +2395,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>293.9961136117238</v>
+        <v>330.5829154527582</v>
       </c>
       <c r="AB5" t="n">
-        <v>402.2584528367037</v>
+        <v>452.3181292113873</v>
       </c>
       <c r="AC5" t="n">
-        <v>363.8674706712525</v>
+        <v>409.1495217919331</v>
       </c>
       <c r="AD5" t="n">
-        <v>293996.1136117238</v>
+        <v>330582.9154527583</v>
       </c>
       <c r="AE5" t="n">
-        <v>402258.4528367037</v>
+        <v>452318.1292113872</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.685673956603297e-06</v>
+        <v>4.969199967910309e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.657552083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>363867.4706712525</v>
+        <v>409149.5217919331</v>
       </c>
     </row>
   </sheetData>
@@ -2692,28 +2692,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>597.8509889939482</v>
+        <v>656.5842088029628</v>
       </c>
       <c r="AB2" t="n">
-        <v>818.0060984656781</v>
+        <v>898.3674809351572</v>
       </c>
       <c r="AC2" t="n">
-        <v>739.9367445068827</v>
+        <v>812.6285494213838</v>
       </c>
       <c r="AD2" t="n">
-        <v>597850.9889939482</v>
+        <v>656584.2088029628</v>
       </c>
       <c r="AE2" t="n">
-        <v>818006.098465678</v>
+        <v>898367.4809351573</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.770225559510595e-06</v>
+        <v>3.374323119583903e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.880208333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>739936.7445068827</v>
+        <v>812628.5494213838</v>
       </c>
     </row>
     <row r="3">
@@ -2798,28 +2798,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>325.1932151099055</v>
+        <v>360.3991001620366</v>
       </c>
       <c r="AB3" t="n">
-        <v>444.9437034254983</v>
+        <v>493.1139485278551</v>
       </c>
       <c r="AC3" t="n">
-        <v>402.4789008529779</v>
+        <v>446.0518453701294</v>
       </c>
       <c r="AD3" t="n">
-        <v>325193.2151099055</v>
+        <v>360399.1001620366</v>
       </c>
       <c r="AE3" t="n">
-        <v>444943.7034254983</v>
+        <v>493113.9485278551</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.552957332441295e-06</v>
+        <v>4.866330679661814e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.1572265625</v>
       </c>
       <c r="AH3" t="n">
-        <v>402478.9008529779</v>
+        <v>446051.8453701294</v>
       </c>
     </row>
     <row r="4">
@@ -2904,28 +2904,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>275.2177250698143</v>
+        <v>310.508861467966</v>
       </c>
       <c r="AB4" t="n">
-        <v>376.5650331896294</v>
+        <v>424.8519229446355</v>
       </c>
       <c r="AC4" t="n">
-        <v>340.6261949343539</v>
+        <v>384.3046517022176</v>
       </c>
       <c r="AD4" t="n">
-        <v>275217.7250698143</v>
+        <v>310508.861467966</v>
       </c>
       <c r="AE4" t="n">
-        <v>376565.0331896294</v>
+        <v>424851.9229446355</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.735504599326663e-06</v>
+        <v>5.214293943302886e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.7470703125</v>
       </c>
       <c r="AH4" t="n">
-        <v>340626.1949343539</v>
+        <v>384304.6517022176</v>
       </c>
     </row>
   </sheetData>
@@ -3201,28 +3201,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>251.6019176602356</v>
+        <v>282.9069937877908</v>
       </c>
       <c r="AB2" t="n">
-        <v>344.2528436357889</v>
+        <v>387.0858298761592</v>
       </c>
       <c r="AC2" t="n">
-        <v>311.3978354011924</v>
+        <v>350.1429015511522</v>
       </c>
       <c r="AD2" t="n">
-        <v>251601.9176602355</v>
+        <v>282906.9937877908</v>
       </c>
       <c r="AE2" t="n">
-        <v>344252.8436357889</v>
+        <v>387085.8298761592</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.723816386489068e-06</v>
+        <v>5.80101607248096e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.4404296875</v>
       </c>
       <c r="AH2" t="n">
-        <v>311397.8354011924</v>
+        <v>350142.9015511522</v>
       </c>
     </row>
     <row r="3">
@@ -3307,28 +3307,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>252.6108324873694</v>
+        <v>283.9159086149247</v>
       </c>
       <c r="AB3" t="n">
-        <v>345.6332854124534</v>
+        <v>388.4662716528246</v>
       </c>
       <c r="AC3" t="n">
-        <v>312.6465297521548</v>
+        <v>351.3915959021148</v>
       </c>
       <c r="AD3" t="n">
-        <v>252610.8324873694</v>
+        <v>283915.9086149246</v>
       </c>
       <c r="AE3" t="n">
-        <v>345633.2854124534</v>
+        <v>388466.2716528245</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.72845074349532e-06</v>
+        <v>5.810886040079452e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.429036458333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>312646.5297521548</v>
+        <v>351391.5959021148</v>
       </c>
     </row>
   </sheetData>
@@ -3604,28 +3604,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>321.5596142436719</v>
+        <v>365.3614575739017</v>
       </c>
       <c r="AB2" t="n">
-        <v>439.972050417161</v>
+        <v>499.903664862527</v>
       </c>
       <c r="AC2" t="n">
-        <v>397.9817354299975</v>
+        <v>452.1935607072469</v>
       </c>
       <c r="AD2" t="n">
-        <v>321559.6142436719</v>
+        <v>365361.4575739017</v>
       </c>
       <c r="AE2" t="n">
-        <v>439972.050417161</v>
+        <v>499903.664862527</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.443088012345172e-06</v>
+        <v>4.96031331794024e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.868489583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>397981.7354299974</v>
+        <v>452193.5607072469</v>
       </c>
     </row>
     <row r="3">
@@ -3710,28 +3710,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>261.6670598747454</v>
+        <v>294.4971966673259</v>
       </c>
       <c r="AB3" t="n">
-        <v>358.0244152565792</v>
+        <v>402.9440567796027</v>
       </c>
       <c r="AC3" t="n">
-        <v>323.8550675549133</v>
+        <v>364.4876415360923</v>
       </c>
       <c r="AD3" t="n">
-        <v>261667.0598747454</v>
+        <v>294497.1966673259</v>
       </c>
       <c r="AE3" t="n">
-        <v>358024.4152565792</v>
+        <v>402944.0567796027</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.774778838921007e-06</v>
+        <v>5.633760371910012e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.048177083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>323855.0675549133</v>
+        <v>364487.6415360923</v>
       </c>
     </row>
   </sheetData>
@@ -4007,28 +4007,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>248.6640144626052</v>
+        <v>288.7646267960106</v>
       </c>
       <c r="AB2" t="n">
-        <v>340.2330748696515</v>
+        <v>395.1005017785356</v>
       </c>
       <c r="AC2" t="n">
-        <v>307.761707724313</v>
+        <v>357.3926644158284</v>
       </c>
       <c r="AD2" t="n">
-        <v>248664.0144626052</v>
+        <v>288764.6267960106</v>
       </c>
       <c r="AE2" t="n">
-        <v>340233.0748696515</v>
+        <v>395100.5017785356</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.618252381134763e-06</v>
+        <v>5.83033664515141e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.9580078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>307761.707724313</v>
+        <v>357392.6644158284</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>664.763712823234</v>
+        <v>723.979272260601</v>
       </c>
       <c r="AB2" t="n">
-        <v>909.5590391899417</v>
+        <v>990.5803800182555</v>
       </c>
       <c r="AC2" t="n">
-        <v>822.7520010637821</v>
+        <v>896.0407788376077</v>
       </c>
       <c r="AD2" t="n">
-        <v>664763.7128232339</v>
+        <v>723979.2722606009</v>
       </c>
       <c r="AE2" t="n">
-        <v>909559.0391899417</v>
+        <v>990580.3800182554</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.678897783754681e-06</v>
+        <v>3.174398932854737e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.278971354166666</v>
       </c>
       <c r="AH2" t="n">
-        <v>822752.0010637821</v>
+        <v>896040.7788376077</v>
       </c>
     </row>
     <row r="3">
@@ -4410,28 +4410,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>345.8700750966935</v>
+        <v>381.4165147334484</v>
       </c>
       <c r="AB3" t="n">
-        <v>473.2346954581046</v>
+        <v>521.8709023673515</v>
       </c>
       <c r="AC3" t="n">
-        <v>428.0698403126489</v>
+        <v>472.0642758958225</v>
       </c>
       <c r="AD3" t="n">
-        <v>345870.0750966935</v>
+        <v>381416.5147334484</v>
       </c>
       <c r="AE3" t="n">
-        <v>473234.6954581046</v>
+        <v>521870.9023673515</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.474029134361873e-06</v>
+        <v>4.677804402365814e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.297200520833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>428069.8403126489</v>
+        <v>472064.2758958225</v>
       </c>
     </row>
     <row r="4">
@@ -4516,28 +4516,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>279.5897975421925</v>
+        <v>315.221488524968</v>
       </c>
       <c r="AB4" t="n">
-        <v>382.5470956285618</v>
+        <v>431.2999471904581</v>
       </c>
       <c r="AC4" t="n">
-        <v>346.037337729992</v>
+        <v>390.1372855638778</v>
       </c>
       <c r="AD4" t="n">
-        <v>279589.7975421925</v>
+        <v>315221.488524968</v>
       </c>
       <c r="AE4" t="n">
-        <v>382547.0956285618</v>
+        <v>431299.9471904581</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.72461946491317e-06</v>
+        <v>5.151611495080392e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.7177734375</v>
       </c>
       <c r="AH4" t="n">
-        <v>346037.337729992</v>
+        <v>390137.2855638778</v>
       </c>
     </row>
     <row r="5">
@@ -4622,28 +4622,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>280.6170742915734</v>
+        <v>316.248765274349</v>
       </c>
       <c r="AB5" t="n">
-        <v>383.9526609973165</v>
+        <v>432.7055125592128</v>
       </c>
       <c r="AC5" t="n">
-        <v>347.308757912676</v>
+        <v>391.4087057465618</v>
       </c>
       <c r="AD5" t="n">
-        <v>280617.0742915734</v>
+        <v>316248.765274349</v>
       </c>
       <c r="AE5" t="n">
-        <v>383952.6609973165</v>
+        <v>432705.5125592127</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.725098056071595e-06</v>
+        <v>5.152516397854866e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.716145833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>347308.757912676</v>
+        <v>391408.7057465619</v>
       </c>
     </row>
   </sheetData>
@@ -4919,28 +4919,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>259.3624682563155</v>
+        <v>298.3902319949185</v>
       </c>
       <c r="AB2" t="n">
-        <v>354.871171332837</v>
+        <v>408.2706794634122</v>
       </c>
       <c r="AC2" t="n">
-        <v>321.0027648056474</v>
+        <v>369.3058988269209</v>
       </c>
       <c r="AD2" t="n">
-        <v>259362.4682563156</v>
+        <v>298390.2319949185</v>
       </c>
       <c r="AE2" t="n">
-        <v>354871.171332837</v>
+        <v>408270.6794634122</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.516236105491265e-06</v>
+        <v>5.768639226030101e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.408854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>321002.7648056474</v>
+        <v>369305.8988269209</v>
       </c>
     </row>
   </sheetData>
@@ -5216,28 +5216,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>446.6388733532661</v>
+        <v>492.2200360198942</v>
       </c>
       <c r="AB2" t="n">
-        <v>611.1110108383713</v>
+        <v>673.4771684978263</v>
       </c>
       <c r="AC2" t="n">
-        <v>552.7874336636469</v>
+        <v>609.2014527675356</v>
       </c>
       <c r="AD2" t="n">
-        <v>446638.8733532662</v>
+        <v>492220.0360198942</v>
       </c>
       <c r="AE2" t="n">
-        <v>611111.0108383712</v>
+        <v>673477.1684978262</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.073858431502266e-06</v>
+        <v>4.064733865157417e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.809244791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>552787.4336636469</v>
+        <v>609201.4527675356</v>
       </c>
     </row>
     <row r="3">
@@ -5322,28 +5322,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>263.2645384882719</v>
+        <v>297.4504104882429</v>
       </c>
       <c r="AB3" t="n">
-        <v>360.2101559713887</v>
+        <v>406.9847742159801</v>
       </c>
       <c r="AC3" t="n">
-        <v>325.8322042436077</v>
+        <v>368.1427185715243</v>
       </c>
       <c r="AD3" t="n">
-        <v>263264.5384882719</v>
+        <v>297450.4104882429</v>
       </c>
       <c r="AE3" t="n">
-        <v>360210.1559713887</v>
+        <v>406984.7742159801</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.757714244423743e-06</v>
+        <v>5.405081807641187e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.8740234375</v>
       </c>
       <c r="AH3" t="n">
-        <v>325832.2042436078</v>
+        <v>368142.7185715243</v>
       </c>
     </row>
     <row r="4">
@@ -5428,28 +5428,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>263.2198793053577</v>
+        <v>297.4057513053286</v>
       </c>
       <c r="AB4" t="n">
-        <v>360.1490513071014</v>
+        <v>406.9236695516927</v>
       </c>
       <c r="AC4" t="n">
-        <v>325.776931322719</v>
+        <v>368.0874456506355</v>
       </c>
       <c r="AD4" t="n">
-        <v>263219.8793053576</v>
+        <v>297405.7513053286</v>
       </c>
       <c r="AE4" t="n">
-        <v>360149.0513071014</v>
+        <v>406923.6695516927</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.764182612852132e-06</v>
+        <v>5.417759720368405e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.859375</v>
       </c>
       <c r="AH4" t="n">
-        <v>325776.931322719</v>
+        <v>368087.4456506355</v>
       </c>
     </row>
   </sheetData>
@@ -5725,28 +5725,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>547.5789886282685</v>
+        <v>594.2478385468584</v>
       </c>
       <c r="AB2" t="n">
-        <v>749.2217297212267</v>
+        <v>813.0761090641909</v>
       </c>
       <c r="AC2" t="n">
-        <v>677.7170593759338</v>
+        <v>735.4772663745902</v>
       </c>
       <c r="AD2" t="n">
-        <v>547578.9886282685</v>
+        <v>594247.8385468584</v>
       </c>
       <c r="AE2" t="n">
-        <v>749221.7297212266</v>
+        <v>813076.1090641909</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.865822522157226e-06</v>
+        <v>3.587422712394682e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.505859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>677717.0593759338</v>
+        <v>735477.2663745901</v>
       </c>
     </row>
     <row r="3">
@@ -5831,28 +5831,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>305.6709581671338</v>
+        <v>340.523338619127</v>
       </c>
       <c r="AB3" t="n">
-        <v>418.2324902152067</v>
+        <v>465.9190547281324</v>
       </c>
       <c r="AC3" t="n">
-        <v>378.3169683420533</v>
+        <v>421.452394066379</v>
       </c>
       <c r="AD3" t="n">
-        <v>305670.9581671339</v>
+        <v>340523.338619127</v>
       </c>
       <c r="AE3" t="n">
-        <v>418232.4902152068</v>
+        <v>465919.0547281324</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.630053130887803e-06</v>
+        <v>5.056811258577245e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.033528645833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>378316.9683420532</v>
+        <v>421452.3940663791</v>
       </c>
     </row>
     <row r="4">
@@ -5937,28 +5937,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>271.2294743972662</v>
+        <v>306.16710619528</v>
       </c>
       <c r="AB4" t="n">
-        <v>371.1081326702474</v>
+        <v>418.9113418358223</v>
       </c>
       <c r="AC4" t="n">
-        <v>335.6900933417336</v>
+        <v>378.9310313167716</v>
       </c>
       <c r="AD4" t="n">
-        <v>271229.4743972662</v>
+        <v>306167.10619528</v>
       </c>
       <c r="AE4" t="n">
-        <v>371108.1326702473</v>
+        <v>418911.3418358223</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.747934580996921e-06</v>
+        <v>5.283462285922832e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.774739583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>335690.0933417336</v>
+        <v>378931.0313167716</v>
       </c>
     </row>
   </sheetData>
@@ -6234,28 +6234,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>801.5395154278367</v>
+        <v>861.9185412786638</v>
       </c>
       <c r="AB2" t="n">
-        <v>1096.701726436103</v>
+        <v>1179.314973339828</v>
       </c>
       <c r="AC2" t="n">
-        <v>992.034052895581</v>
+        <v>1066.762807463235</v>
       </c>
       <c r="AD2" t="n">
-        <v>801539.5154278367</v>
+        <v>861918.5412786638</v>
       </c>
       <c r="AE2" t="n">
-        <v>1096701.726436103</v>
+        <v>1179314.973339828</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.511445224704591e-06</v>
+        <v>2.815707815908932e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.13346354166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>992034.052895581</v>
+        <v>1066762.807463235</v>
       </c>
     </row>
     <row r="3">
@@ -6340,28 +6340,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>388.3753718798149</v>
+        <v>424.7392790524951</v>
       </c>
       <c r="AB3" t="n">
-        <v>531.3923177181201</v>
+        <v>581.1470197741426</v>
       </c>
       <c r="AC3" t="n">
-        <v>480.6769807289041</v>
+        <v>525.6831638518627</v>
       </c>
       <c r="AD3" t="n">
-        <v>388375.3718798149</v>
+        <v>424739.2790524951</v>
       </c>
       <c r="AE3" t="n">
-        <v>531392.3177181202</v>
+        <v>581147.0197741425</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.328340900323262e-06</v>
+        <v>4.337522500970546e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.578776041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>480676.9807289041</v>
+        <v>525683.1638518627</v>
       </c>
     </row>
     <row r="4">
@@ -6446,28 +6446,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>300.6760549202928</v>
+        <v>336.9546212384014</v>
       </c>
       <c r="AB4" t="n">
-        <v>411.3982432332997</v>
+        <v>461.0361781671244</v>
       </c>
       <c r="AC4" t="n">
-        <v>372.1349723001736</v>
+        <v>417.0355323911933</v>
       </c>
       <c r="AD4" t="n">
-        <v>300676.0549202928</v>
+        <v>336954.6212384014</v>
       </c>
       <c r="AE4" t="n">
-        <v>411398.2432332997</v>
+        <v>461036.1781671244</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.648228965003891e-06</v>
+        <v>4.933449703104695e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.784505208333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>372134.9723001736</v>
+        <v>417035.5323911933</v>
       </c>
     </row>
     <row r="5">
@@ -6552,28 +6552,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>290.399485199393</v>
+        <v>326.6780515175017</v>
       </c>
       <c r="AB5" t="n">
-        <v>397.3373871709058</v>
+        <v>446.9753221047305</v>
       </c>
       <c r="AC5" t="n">
-        <v>359.4160646058392</v>
+        <v>404.3166246968589</v>
       </c>
       <c r="AD5" t="n">
-        <v>290399.4851993931</v>
+        <v>326678.0515175017</v>
       </c>
       <c r="AE5" t="n">
-        <v>397337.3871709058</v>
+        <v>446975.3221047305</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.693026469795883e-06</v>
+        <v>5.016904056801623e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.6884765625</v>
       </c>
       <c r="AH5" t="n">
-        <v>359416.0646058392</v>
+        <v>404316.6246968589</v>
       </c>
     </row>
   </sheetData>
@@ -6849,28 +6849,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>369.1212250057501</v>
+        <v>402.4827649816282</v>
       </c>
       <c r="AB2" t="n">
-        <v>505.0479445320145</v>
+        <v>550.6946753342799</v>
       </c>
       <c r="AC2" t="n">
-        <v>456.8468775451205</v>
+        <v>498.1371484252066</v>
       </c>
       <c r="AD2" t="n">
-        <v>369121.2250057501</v>
+        <v>402482.7649816282</v>
       </c>
       <c r="AE2" t="n">
-        <v>505047.9445320145</v>
+        <v>550694.6753342799</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.309372959218021e-06</v>
+        <v>4.62913198837874e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.176106770833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>456846.8775451205</v>
+        <v>498137.1484252067</v>
       </c>
     </row>
     <row r="3">
@@ -6955,28 +6955,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>254.0502309891427</v>
+        <v>298.3614832364387</v>
       </c>
       <c r="AB3" t="n">
-        <v>347.6027339443588</v>
+        <v>408.2313441437546</v>
       </c>
       <c r="AC3" t="n">
-        <v>314.4280168803141</v>
+        <v>369.2703176149639</v>
       </c>
       <c r="AD3" t="n">
-        <v>254050.2309891427</v>
+        <v>298361.4832364388</v>
       </c>
       <c r="AE3" t="n">
-        <v>347602.7339443588</v>
+        <v>408231.3441437546</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.777621184217742e-06</v>
+        <v>5.567734316857437e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.966796875</v>
       </c>
       <c r="AH3" t="n">
-        <v>314428.0168803142</v>
+        <v>369270.3176149639</v>
       </c>
     </row>
   </sheetData>
@@ -7252,28 +7252,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>260.6047675188439</v>
+        <v>292.4552631934395</v>
       </c>
       <c r="AB2" t="n">
-        <v>356.5709399902037</v>
+        <v>400.1501933168843</v>
       </c>
       <c r="AC2" t="n">
-        <v>322.5403099279953</v>
+        <v>361.9604204810437</v>
       </c>
       <c r="AD2" t="n">
-        <v>260604.7675188439</v>
+        <v>292455.2631934395</v>
       </c>
       <c r="AE2" t="n">
-        <v>356570.9399902037</v>
+        <v>400150.1933168843</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.708607987957376e-06</v>
+        <v>5.666577301508194e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.373697916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>322540.3099279953</v>
+        <v>361960.4204810438</v>
       </c>
     </row>
     <row r="3">
@@ -7358,28 +7358,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>254.8199558363338</v>
+        <v>286.6704515109325</v>
       </c>
       <c r="AB3" t="n">
-        <v>348.6559054381487</v>
+        <v>392.2351587649986</v>
       </c>
       <c r="AC3" t="n">
-        <v>315.3806751648726</v>
+        <v>354.8007857179692</v>
       </c>
       <c r="AD3" t="n">
-        <v>254819.9558363338</v>
+        <v>286670.4515109325</v>
       </c>
       <c r="AE3" t="n">
-        <v>348655.9054381488</v>
+        <v>392235.1587649986</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.754637036345077e-06</v>
+        <v>5.76287294929607e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.266276041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>315380.6751648726</v>
+        <v>354800.7857179692</v>
       </c>
     </row>
   </sheetData>
@@ -12492,28 +12492,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>249.1823178810249</v>
+        <v>290.1585178380324</v>
       </c>
       <c r="AB2" t="n">
-        <v>340.942240472666</v>
+        <v>397.0076849963624</v>
       </c>
       <c r="AC2" t="n">
-        <v>308.4031915574961</v>
+        <v>359.1178287440943</v>
       </c>
       <c r="AD2" t="n">
-        <v>249182.3178810249</v>
+        <v>290158.5178380324</v>
       </c>
       <c r="AE2" t="n">
-        <v>340942.2404726659</v>
+        <v>397007.6849963624</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.684428893885022e-06</v>
+        <v>5.835561239742325e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.652018229166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>308403.1915574961</v>
+        <v>359117.8287440943</v>
       </c>
     </row>
   </sheetData>
@@ -12789,28 +12789,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>275.5154045164014</v>
+        <v>313.4796625345431</v>
       </c>
       <c r="AB2" t="n">
-        <v>376.9723313411401</v>
+        <v>428.9167040264193</v>
       </c>
       <c r="AC2" t="n">
-        <v>340.9946211219309</v>
+        <v>387.9814957825121</v>
       </c>
       <c r="AD2" t="n">
-        <v>275515.4045164014</v>
+        <v>313479.6625345431</v>
       </c>
       <c r="AE2" t="n">
-        <v>376972.3313411401</v>
+        <v>428916.7040264193</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.330121182900283e-06</v>
+        <v>5.542256061804586e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.225911458333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>340994.6211219309</v>
+        <v>387981.4957825121</v>
       </c>
     </row>
   </sheetData>
@@ -13086,28 +13086,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>500.7738323640833</v>
+        <v>546.7816062226771</v>
       </c>
       <c r="AB2" t="n">
-        <v>685.1808500228072</v>
+        <v>748.1307159358674</v>
       </c>
       <c r="AC2" t="n">
-        <v>619.7881513539926</v>
+        <v>676.730170415002</v>
       </c>
       <c r="AD2" t="n">
-        <v>500773.8323640833</v>
+        <v>546781.606222677</v>
       </c>
       <c r="AE2" t="n">
-        <v>685180.8500228073</v>
+        <v>748130.7159358674</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.967956980382063e-06</v>
+        <v>3.818974404804587e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.14453125</v>
       </c>
       <c r="AH2" t="n">
-        <v>619788.1513539926</v>
+        <v>676730.170415002</v>
       </c>
     </row>
     <row r="3">
@@ -13192,28 +13192,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>275.1153697156949</v>
+        <v>309.6851386191556</v>
       </c>
       <c r="AB3" t="n">
-        <v>376.4249860785237</v>
+        <v>423.7248690028058</v>
       </c>
       <c r="AC3" t="n">
-        <v>340.4995137229748</v>
+        <v>383.285162206766</v>
       </c>
       <c r="AD3" t="n">
-        <v>275115.3697156949</v>
+        <v>309685.1386191556</v>
       </c>
       <c r="AE3" t="n">
-        <v>376424.9860785237</v>
+        <v>423724.8690028058</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.710569249650535e-06</v>
+        <v>5.260071581877815e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.9130859375</v>
       </c>
       <c r="AH3" t="n">
-        <v>340499.5137229748</v>
+        <v>383285.162206766</v>
       </c>
     </row>
     <row r="4">
@@ -13298,28 +13298,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>267.1888706985492</v>
+        <v>301.75863960201</v>
       </c>
       <c r="AB4" t="n">
-        <v>365.5796004308084</v>
+        <v>412.8794833550905</v>
       </c>
       <c r="AC4" t="n">
-        <v>330.6891964598831</v>
+        <v>373.4748449436743</v>
       </c>
       <c r="AD4" t="n">
-        <v>267188.8706985492</v>
+        <v>301758.63960201</v>
       </c>
       <c r="AE4" t="n">
-        <v>365579.6004308084</v>
+        <v>412879.4833550905</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.757444125684455e-06</v>
+        <v>5.351035944202024e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.812174479166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>330689.1964598831</v>
+        <v>373474.8449436743</v>
       </c>
     </row>
   </sheetData>
@@ -13595,28 +13595,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>723.4073427257383</v>
+        <v>783.3414962463607</v>
       </c>
       <c r="AB2" t="n">
-        <v>989.797840796906</v>
+        <v>1071.802393752063</v>
       </c>
       <c r="AC2" t="n">
-        <v>895.332924061243</v>
+        <v>969.5110775764729</v>
       </c>
       <c r="AD2" t="n">
-        <v>723407.3427257383</v>
+        <v>783341.4962463607</v>
       </c>
       <c r="AE2" t="n">
-        <v>989797.840796906</v>
+        <v>1071802.393752063</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.594239606480689e-06</v>
+        <v>2.991418809153836e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.6875</v>
       </c>
       <c r="AH2" t="n">
-        <v>895332.9240612431</v>
+        <v>969511.0775764729</v>
       </c>
     </row>
     <row r="3">
@@ -13701,28 +13701,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>365.7277722357137</v>
+        <v>401.6030130020665</v>
       </c>
       <c r="AB3" t="n">
-        <v>500.4048727434806</v>
+        <v>549.4909598639255</v>
       </c>
       <c r="AC3" t="n">
-        <v>452.6469340114919</v>
+        <v>497.0483138699175</v>
       </c>
       <c r="AD3" t="n">
-        <v>365727.7722357137</v>
+        <v>401603.0130020665</v>
       </c>
       <c r="AE3" t="n">
-        <v>500404.8727434805</v>
+        <v>549490.9598639255</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.403695787628324e-06</v>
+        <v>4.510276097373016e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.42578125</v>
       </c>
       <c r="AH3" t="n">
-        <v>452646.9340114919</v>
+        <v>497048.3138699175</v>
       </c>
     </row>
     <row r="4">
@@ -13807,28 +13807,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>287.0209848882242</v>
+        <v>322.9814770005976</v>
       </c>
       <c r="AB4" t="n">
-        <v>392.7147739962503</v>
+        <v>441.9175057693444</v>
       </c>
       <c r="AC4" t="n">
-        <v>355.2346271446943</v>
+        <v>399.7415192538323</v>
       </c>
       <c r="AD4" t="n">
-        <v>287020.9848882242</v>
+        <v>322981.4770005976</v>
       </c>
       <c r="AE4" t="n">
-        <v>392714.7739962503</v>
+        <v>441917.5057693444</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.698725010041923e-06</v>
+        <v>5.063866637709879e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.72265625</v>
       </c>
       <c r="AH4" t="n">
-        <v>355234.6271446943</v>
+        <v>399741.5192538323</v>
       </c>
     </row>
     <row r="5">
@@ -13913,28 +13913,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>285.4915218949965</v>
+        <v>321.4520140073699</v>
       </c>
       <c r="AB5" t="n">
-        <v>390.6220952537711</v>
+        <v>439.8248270268652</v>
       </c>
       <c r="AC5" t="n">
-        <v>353.3416707243044</v>
+        <v>397.8485628334422</v>
       </c>
       <c r="AD5" t="n">
-        <v>285491.5218949965</v>
+        <v>321452.0140073699</v>
       </c>
       <c r="AE5" t="n">
-        <v>390622.0952537711</v>
+        <v>439824.8270268652</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.708878798011771e-06</v>
+        <v>5.082919126553894e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.701497395833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>353341.6707243044</v>
+        <v>397848.5628334422</v>
       </c>
     </row>
   </sheetData>
@@ -14210,28 +14210,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>302.9747295533926</v>
+        <v>357.7652056236498</v>
       </c>
       <c r="AB2" t="n">
-        <v>414.5433912766745</v>
+        <v>489.510137821208</v>
       </c>
       <c r="AC2" t="n">
-        <v>374.9799518285317</v>
+        <v>442.7919772993447</v>
       </c>
       <c r="AD2" t="n">
-        <v>302974.7295533926</v>
+        <v>357765.2056236498</v>
       </c>
       <c r="AE2" t="n">
-        <v>414543.3912766745</v>
+        <v>489510.137821208</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.987537105180139e-06</v>
+        <v>4.970679466795448e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.9853515625</v>
       </c>
       <c r="AH2" t="n">
-        <v>374979.9518285317</v>
+        <v>442791.9772993447</v>
       </c>
     </row>
   </sheetData>
@@ -14507,28 +14507,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>286.9474106030222</v>
+        <v>319.4745923806227</v>
       </c>
       <c r="AB2" t="n">
-        <v>392.6141064133685</v>
+        <v>437.1192315194644</v>
       </c>
       <c r="AC2" t="n">
-        <v>355.1435671346351</v>
+        <v>395.4011855639404</v>
       </c>
       <c r="AD2" t="n">
-        <v>286947.4106030222</v>
+        <v>319474.5923806226</v>
       </c>
       <c r="AE2" t="n">
-        <v>392614.1064133685</v>
+        <v>437119.2315194644</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.590743917053068e-06</v>
+        <v>5.335076092610236e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.565755208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>355143.5671346351</v>
+        <v>395401.1855639404</v>
       </c>
     </row>
     <row r="3">
@@ -14613,28 +14613,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>258.3521244062442</v>
+        <v>290.7087139832525</v>
       </c>
       <c r="AB3" t="n">
-        <v>353.4887743039446</v>
+        <v>397.7604876351934</v>
       </c>
       <c r="AC3" t="n">
-        <v>319.752301808986</v>
+        <v>359.7987849556403</v>
       </c>
       <c r="AD3" t="n">
-        <v>258352.1244062443</v>
+        <v>290708.7139832525</v>
       </c>
       <c r="AE3" t="n">
-        <v>353488.7743039447</v>
+        <v>397760.4876351934</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.766428314348893e-06</v>
+        <v>5.696860065811164e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.149088541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>319752.3018089861</v>
+        <v>359798.7849556403</v>
       </c>
     </row>
   </sheetData>
@@ -14910,28 +14910,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>405.9196192883766</v>
+        <v>450.7942564028787</v>
       </c>
       <c r="AB2" t="n">
-        <v>555.397131020084</v>
+        <v>616.7965892494129</v>
       </c>
       <c r="AC2" t="n">
-        <v>502.3908083402956</v>
+        <v>557.9303884508982</v>
       </c>
       <c r="AD2" t="n">
-        <v>405919.6192883766</v>
+        <v>450794.2564028787</v>
       </c>
       <c r="AE2" t="n">
-        <v>555397.131020084</v>
+        <v>616796.5892494129</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.18944491451167e-06</v>
+        <v>4.33769347825423e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.48046875</v>
       </c>
       <c r="AH2" t="n">
-        <v>502390.8083402956</v>
+        <v>557930.3884508982</v>
       </c>
     </row>
     <row r="3">
@@ -15016,28 +15016,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>257.6585330434752</v>
+        <v>291.4424550297991</v>
       </c>
       <c r="AB3" t="n">
-        <v>352.5397720021459</v>
+        <v>398.7644245054489</v>
       </c>
       <c r="AC3" t="n">
-        <v>318.8938709550441</v>
+        <v>360.7069075000329</v>
       </c>
       <c r="AD3" t="n">
-        <v>257658.5330434752</v>
+        <v>291442.4550297991</v>
       </c>
       <c r="AE3" t="n">
-        <v>352539.7720021459</v>
+        <v>398764.4245054489</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.774564735178307e-06</v>
+        <v>5.496923570448189e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.9033203125</v>
       </c>
       <c r="AH3" t="n">
-        <v>318893.8709550441</v>
+        <v>360706.9075000329</v>
       </c>
     </row>
     <row r="4">
@@ -15122,28 +15122,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>258.862418851067</v>
+        <v>292.6463408373876</v>
       </c>
       <c r="AB4" t="n">
-        <v>354.1869816759531</v>
+        <v>400.411634179085</v>
       </c>
       <c r="AC4" t="n">
-        <v>320.3838732493503</v>
+        <v>362.1969097942905</v>
       </c>
       <c r="AD4" t="n">
-        <v>258862.418851067</v>
+        <v>292646.3408373877</v>
       </c>
       <c r="AE4" t="n">
-        <v>354186.9816759531</v>
+        <v>400411.634179085</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.774564735178307e-06</v>
+        <v>5.496923570448189e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.9033203125</v>
       </c>
       <c r="AH4" t="n">
-        <v>320383.8732493503</v>
+        <v>362196.9097942905</v>
       </c>
     </row>
   </sheetData>
